--- a/utilz/tests/res/Segments_Graph.xlsx
+++ b/utilz/tests/res/Segments_Graph.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="9870"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="9870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="32X20" sheetId="1" r:id="rId1"/>
     <sheet name="5X2" sheetId="2" r:id="rId2"/>
-    <sheet name="16X11" sheetId="3" r:id="rId3"/>
+    <sheet name="5X6" sheetId="4" r:id="rId3"/>
+    <sheet name="16X11" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="25">
   <si>
     <t>A</t>
   </si>
@@ -49,22 +50,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Row_First</t>
@@ -100,6 +85,26 @@
   </si>
   <si>
     <t>Row_First</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col_First</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +486,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1380,11 +1391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="AD62" sqref="AD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1396,7 +1407,7 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -1541,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -1561,42 +1572,44 @@
       <c r="S4" s="32"/>
       <c r="T4" s="32"/>
       <c r="U4" s="32"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>17</v>
+      <c r="V4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH4" s="54" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1604,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1624,7 +1637,9 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="16"/>
+      <c r="V5" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W5" s="14"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="14"/>
@@ -1643,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
@@ -1663,7 +1678,9 @@
       <c r="S6" s="32"/>
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
-      <c r="V6" s="33"/>
+      <c r="V6" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W6" s="14"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="14"/>
@@ -1682,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -1702,7 +1719,9 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="16"/>
+      <c r="V7" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W7" s="14"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="14"/>
@@ -1721,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -1741,7 +1760,9 @@
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
-      <c r="V8" s="33"/>
+      <c r="V8" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W8" s="14"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="14"/>
@@ -1760,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1780,7 +1801,9 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="16"/>
+      <c r="V9" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W9" s="14"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="14"/>
@@ -1799,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -1819,7 +1842,9 @@
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
-      <c r="V10" s="33"/>
+      <c r="V10" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W10" s="14"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="14"/>
@@ -1838,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1858,7 +1883,9 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="16"/>
+      <c r="V11" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W11" s="14"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="14"/>
@@ -1877,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -1897,7 +1924,9 @@
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
       <c r="U12" s="32"/>
-      <c r="V12" s="33"/>
+      <c r="V12" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W12" s="14"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="14"/>
@@ -1916,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1936,7 +1965,9 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="16"/>
+      <c r="V13" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W13" s="14"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="14"/>
@@ -1955,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -1975,7 +2006,9 @@
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
       <c r="U14" s="32"/>
-      <c r="V14" s="33"/>
+      <c r="V14" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W14" s="14"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="14"/>
@@ -1994,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -2014,7 +2047,9 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="16"/>
+      <c r="V15" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W15" s="14"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="14"/>
@@ -2033,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -2053,7 +2088,9 @@
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
-      <c r="V16" s="33"/>
+      <c r="V16" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W16" s="14"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="14"/>
@@ -2072,7 +2109,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -2092,7 +2129,9 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="16"/>
+      <c r="V17" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W17" s="14"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="14"/>
@@ -2111,7 +2150,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
@@ -2131,7 +2170,9 @@
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
-      <c r="V18" s="33"/>
+      <c r="V18" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W18" s="14"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="14"/>
@@ -2150,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -2170,7 +2211,9 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="16"/>
+      <c r="V19" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W19" s="14"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="14"/>
@@ -2189,7 +2232,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -2209,7 +2252,9 @@
       <c r="S20" s="32"/>
       <c r="T20" s="32"/>
       <c r="U20" s="32"/>
-      <c r="V20" s="33"/>
+      <c r="V20" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W20" s="14"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="14"/>
@@ -2228,7 +2273,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -2248,7 +2293,9 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="16"/>
+      <c r="V21" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="W21" s="14"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="14"/>
@@ -2267,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -2287,7 +2334,9 @@
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
-      <c r="V22" s="33"/>
+      <c r="V22" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="W22" s="14"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="14"/>
@@ -2306,7 +2355,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2326,19 +2375,45 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="17"/>
+      <c r="V23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH23" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35">
@@ -2349,7 +2424,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -2369,43 +2444,23 @@
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="7">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="4">
-        <v>6</v>
-      </c>
-      <c r="AD24" s="4">
-        <v>7</v>
-      </c>
-      <c r="AE24" s="4">
-        <v>8</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>9</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="V24" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
     </row>
     <row r="25" spans="1:35">
       <c r="A25">
@@ -2415,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -2435,43 +2490,25 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="V25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
       <c r="AD25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>2</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AE25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
     </row>
     <row r="26" spans="1:35">
       <c r="A26">
@@ -2481,7 +2518,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -2501,43 +2538,21 @@
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="3">
-        <v>4</v>
-      </c>
-      <c r="X26" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>7</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>9</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH26" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="V26" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
     </row>
     <row r="27" spans="1:35">
       <c r="A27">
@@ -2547,7 +2562,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -2567,43 +2582,25 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="V27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
       <c r="Z27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD27" s="5">
-        <v>3</v>
-      </c>
-      <c r="AE27" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF27" s="5">
-        <v>5</v>
-      </c>
-      <c r="AG27" s="5">
-        <v>6</v>
-      </c>
-      <c r="AH27" s="5">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
     </row>
     <row r="28" spans="1:35">
       <c r="A28">
@@ -2613,7 +2610,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
@@ -2633,42 +2630,22 @@
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
       <c r="U28" s="32"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="5">
-        <v>8</v>
-      </c>
-      <c r="X28" s="5">
-        <v>9</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG28" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="V28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
       <c r="AH28" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -2679,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2699,43 +2676,23 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
-      <c r="X29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA29" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB29" s="4">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="4">
-        <v>6</v>
-      </c>
-      <c r="AD29" s="4">
-        <v>7</v>
-      </c>
-      <c r="AE29" s="4">
-        <v>8</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>9</v>
-      </c>
-      <c r="AG29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="V29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
     </row>
     <row r="30" spans="1:35">
       <c r="A30">
@@ -2745,7 +2702,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
@@ -2765,43 +2722,25 @@
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="32"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="V30" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
       <c r="AD30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="3">
-        <v>2</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AE30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
     </row>
     <row r="31" spans="1:35">
       <c r="A31">
@@ -2811,7 +2750,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -2831,43 +2770,21 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="3">
-        <v>4</v>
-      </c>
-      <c r="X31" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>7</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>9</v>
-      </c>
-      <c r="AC31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH31" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="V31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
     </row>
     <row r="32" spans="1:35">
       <c r="A32">
@@ -2877,7 +2794,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -2897,43 +2814,25 @@
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
       <c r="U32" s="32"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="V32" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
       <c r="Z32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA32" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>3</v>
-      </c>
-      <c r="AE32" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>5</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>6</v>
-      </c>
-      <c r="AH32" s="5">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
     </row>
     <row r="33" spans="1:34">
       <c r="A33">
@@ -2943,7 +2842,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -2963,42 +2862,22 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="5">
-        <v>8</v>
-      </c>
-      <c r="X33" s="5">
-        <v>9</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG33" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="V33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
       <c r="AH33" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -3009,7 +2888,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
@@ -3029,43 +2908,23 @@
       <c r="S34" s="32"/>
       <c r="T34" s="32"/>
       <c r="U34" s="32"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="7">
-        <v>0</v>
-      </c>
-      <c r="X34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA34" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB34" s="4">
-        <v>5</v>
-      </c>
-      <c r="AC34" s="4">
-        <v>6</v>
-      </c>
-      <c r="AD34" s="4">
-        <v>7</v>
-      </c>
-      <c r="AE34" s="4">
-        <v>8</v>
-      </c>
-      <c r="AF34" s="4">
-        <v>9</v>
-      </c>
-      <c r="AG34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="V34" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
     </row>
     <row r="35" spans="1:34">
       <c r="A35">
@@ -3075,7 +2934,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -3095,35 +2954,23 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="V35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
       <c r="AD35" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -3266,100 +3113,100 @@
         <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG40" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH40" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:34">
@@ -4033,100 +3880,100 @@
         <v>19</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH59" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:34">
@@ -4137,7 +3984,7 @@
         <v>20</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4158,7 +4005,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W60" s="13">
         <v>0</v>
@@ -4950,7 +4797,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4960,7 +4807,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4985,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="22" t="s">
@@ -4993,7 +4840,7 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5023,7 +4870,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5055,7 +4902,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5080,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>7</v>
@@ -5113,7 +4960,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>7</v>
@@ -5140,11 +4987,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="31"/>
     </row>
@@ -5156,10 +5003,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="6" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5171,7 +5124,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5229,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5241,22 +5194,22 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5264,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -5276,7 +5229,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M4" s="33"/>
       <c r="N4" s="16"/>
@@ -5289,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -5301,7 +5254,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M5" s="33"/>
       <c r="N5" s="16"/>
@@ -5314,7 +5267,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -5326,7 +5279,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="16"/>
@@ -5339,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -5351,7 +5304,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M7" s="33"/>
       <c r="N7" s="16"/>
@@ -5364,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -5376,7 +5329,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M8" s="33"/>
       <c r="N8" s="16"/>
@@ -5389,7 +5342,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -5401,7 +5354,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="16"/>
@@ -5414,7 +5367,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -5426,7 +5379,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M10" s="33"/>
       <c r="N10" s="16"/>
@@ -5439,7 +5392,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5451,7 +5404,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="16"/>
@@ -5464,7 +5417,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -5476,7 +5429,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="16"/>
@@ -5489,7 +5442,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -5501,22 +5454,22 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5524,7 +5477,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -5536,10 +5489,10 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -5551,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5563,7 +5516,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M15" s="44"/>
       <c r="N15" s="45"/>
@@ -5576,7 +5529,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -5588,13 +5541,13 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M16" s="44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N16" s="53" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O16" s="48"/>
       <c r="P16" s="48"/>
@@ -5605,7 +5558,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -5617,7 +5570,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M17" s="47"/>
       <c r="N17" s="48"/>
@@ -5630,7 +5583,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -5642,11 +5595,11 @@
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M18" s="50"/>
       <c r="N18" s="51" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
